--- a/Sistema de filtrado de asistencia de guardias/test1.xlsx
+++ b/Sistema de filtrado de asistencia de guardias/test1.xlsx
@@ -45,8 +45,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -393,10 +396,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -405,87 +408,105 @@
     <col width="14.109375" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Evento Sporting</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Evento 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A2" s="2" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Nº</t>
         </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Nombre</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Rut</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>OBS</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Juan Perez</t>
+          <t>Nombre</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11111111-1</t>
+          <t>Rut</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>OBS</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Martin Vazquez</t>
+          <t>Juan Perez</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22222222-2</t>
+          <t>11111111-1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Martin Vazquez</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22222222-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Marcelo Reyes</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>33333333-3</t>
         </is>
@@ -493,7 +514,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
